--- a/DataCollection/AllData_raw_csv/strain.xlsx
+++ b/DataCollection/AllData_raw_csv/strain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory_2\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849FC14-F8D2-419B-8794-9C27CD9ACC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE9C23-4454-467A-AABC-BC58486DCD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7586E42C-BFF9-4009-9BBE-10554970AE33}"/>
+    <workbookView xWindow="5880" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{7586E42C-BFF9-4009-9BBE-10554970AE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>diameter</t>
   </si>
@@ -53,22 +53,13 @@
     <t>max e</t>
   </si>
   <si>
-    <t>e relative</t>
+    <t>Erel</t>
   </si>
   <si>
-    <t xml:space="preserve">(1- e relative) </t>
+    <t xml:space="preserve">(1- Erel) </t>
   </si>
   <si>
-    <t>Li(1-Erel)^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e^(-erel) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">e^(1-erel) </t>
-  </si>
-  <si>
-    <t>(1 - exp(-Erel))</t>
+    <t>Li(1-Erel)</t>
   </si>
 </sst>
 </file>
@@ -543,18 +534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331C31DB-BD6A-4992-8656-D1241D623907}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -582,18 +576,14 @@
       <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -622,23 +612,11 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>D2*(H2^2)</f>
+        <f>D2*(H2)</f>
         <v>12</v>
       </c>
-      <c r="J2">
-        <f>EXP(-G2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>EXP(H2)</f>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L2">
-        <f>(1-EXP(-G2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -667,23 +645,11 @@
         <v>0.79999999999999982</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I32" si="3">D3*(H3^2)</f>
-        <v>7.4239999999999959</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J32" si="4">EXP(-G3)</f>
-        <v>0.81873075307798171</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K32" si="5">EXP(H3)</f>
-        <v>2.2255409284924674</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L32" si="6">(1-EXP(-G3))</f>
-        <v>0.18126924692201829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I3:I32" si="3">D3*(H3)</f>
+        <v>9.2799999999999976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -713,22 +679,10 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>4.0319999999999956</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0.67032004603563911</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
-        <v>1.8221188003905082</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="6"/>
-        <v>0.32967995396436089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.7199999999999953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -758,22 +712,10 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>1.7280000000000031</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0.54881163609402661</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>1.4918246976412708</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="6"/>
-        <v>0.45118836390597339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.3200000000000038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>10</v>
       </c>
@@ -805,20 +747,8 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>10</v>
       </c>
@@ -848,22 +778,10 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>6.6938775510204076</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>0.65143905753105558</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>1.7707949524351549</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="6"/>
-        <v>0.34856094246894442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11.714285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>10</v>
       </c>
@@ -893,22 +811,10 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.24685714285714061</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>0.41241948270015766</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>1.121072385526318</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>0.58758051729984229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1599999999999899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -940,20 +846,8 @@
         <f t="shared" si="3"/>
         <v>25.7</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -983,22 +877,10 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>16.83103221564761</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0.83569866495992629</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
-        <v>2.2716644950280518</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="6"/>
-        <v>0.16430133504007371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20.512820512820518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1028,22 +910,10 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>9.1644970414201126</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0.68071239832338526</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>1.8503681427692336</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="6"/>
-        <v>0.31928760167661474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14.892307692307687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1073,22 +943,10 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.95095332018409295</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>0.4516391336640892</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>1.2276824500600794</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>0.54836086633591075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.6358974358974452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -1120,20 +978,8 @@
         <f t="shared" si="3"/>
         <v>28.1</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -1163,22 +1009,10 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>13.458001189767973</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.74625872180758723</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>2.0285415228186383</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>0.25374127819241277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19.026829268292666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -1208,22 +1042,10 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>5.562105889351562</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>0.58474152566804138</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>1.5894922635688553</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="6"/>
-        <v>0.41525847433195862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12.002439024390227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -1253,22 +1075,10 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.94419988102320007</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>0.44714245280193282</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>1.2154592041841004</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="6"/>
-        <v>0.55285754719806723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.8390243902439014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1300,20 +1110,8 @@
         <f t="shared" si="3"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>20</v>
       </c>
@@ -1343,22 +1141,10 @@
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>1.4225206611570245</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>0.55382357983075869</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>1.5054485732260887</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
-        <v>0.44617642016924131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.4772727272727271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -1388,22 +1174,10 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>6.4462809917355257E-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>0.40289032152913296</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
-        <v>1.0951694398746641</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
-        <v>0.59710967847086704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.70909090909090844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>20</v>
       </c>
@@ -1435,20 +1209,8 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1478,22 +1240,10 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>4.7217598097502984</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>0.70834247095236136</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
-        <v>1.9254744671155828</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="6"/>
-        <v>0.29165752904763864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.2068965517241388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -1523,22 +1273,10 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.96313912009512603</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>0.50174905615489684</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
-        <v>1.3638953417923332</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="6"/>
-        <v>0.49825094384510316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1034482758620707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -1570,20 +1308,8 @@
         <f t="shared" si="3"/>
         <v>22.8</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1613,22 +1339,10 @@
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>15.630766944114134</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>0.85626753242278009</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
-        <v>2.3275764736843096</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="6"/>
-        <v>0.14373246757721991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.501724137931024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -1658,22 +1372,10 @@
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>9.44973246135552</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>0.72066116263532431</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
-        <v>1.9589601428677708</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="6"/>
-        <v>0.27933883736467569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14.053448275862062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>20</v>
       </c>
@@ -1705,20 +1407,8 @@
         <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>20</v>
       </c>
@@ -1748,22 +1438,10 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>16.459256055363337</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>0.81392882698300262</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>2.2124879400468824</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="6"/>
-        <v>0.18607117301699738</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.726470588235301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>20</v>
       </c>
@@ -1793,22 +1471,10 @@
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>11.035899653979234</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>0.7130274969831879</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>1.9382096882410362</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="6"/>
-        <v>0.2869725030168121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.67647058823529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -1840,20 +1506,8 @@
         <f t="shared" si="3"/>
         <v>39.700000000000003</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>20</v>
       </c>
@@ -1883,22 +1537,10 @@
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>14.960204081632661</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>0.69967253737513047</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>1.9019071442186493</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="6"/>
-        <v>0.30032746262486953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23.271428571428579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>20</v>
       </c>
@@ -1928,22 +1570,10 @@
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>9.8823823406913789</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>0.62538503989569671</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>1.6999727897386074</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="6"/>
-        <v>0.37461496010430329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18.624489795918368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>20</v>
       </c>
@@ -1973,19 +1603,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>2.8722199083715054</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>0.49456255586561665</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>1.3443604086457672</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="6"/>
-        <v>0.50543744413438341</v>
+        <v>9.7061224489795794</v>
       </c>
     </row>
   </sheetData>
